--- a/data/trans_bre/P11_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.742256268564112</v>
+        <v>-1.810517118008669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.084287648408778</v>
+        <v>3.956584269765456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.573740814622946</v>
+        <v>4.402179638300742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.336741665343701</v>
+        <v>3.022369245551659</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2029516579161489</v>
+        <v>-0.2089660190190654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5027637234267579</v>
+        <v>0.4866438397851939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6589974361674982</v>
+        <v>0.6181274094296986</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1184242509464003</v>
+        <v>0.1460494438979358</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.762268641180595</v>
+        <v>3.987011404950198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.998933600367636</v>
+        <v>8.892206229936583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.524714150817314</v>
+        <v>9.449440758166521</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.4856229683275</v>
+        <v>11.80276018060996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6719406164507967</v>
+        <v>0.7106749632043691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.649677159499211</v>
+        <v>1.659660287211436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.958889076103118</v>
+        <v>1.96540127441828</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8091842368426343</v>
+        <v>0.8090498573546282</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.575269242901585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.069379467079085</v>
+        <v>5.069379467079087</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3577043790618237</v>
@@ -749,7 +749,7 @@
         <v>1.354330467370967</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5700930535328991</v>
+        <v>0.5700930535328993</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7077304866467926</v>
+        <v>-0.424880433733821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.75866009809085</v>
+        <v>2.720412219373778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.206855688112066</v>
+        <v>2.49044502144413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.67871481413661</v>
+        <v>2.572907534285632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2370395414170651</v>
+        <v>-0.1533302514127089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.462133660372256</v>
+        <v>0.4424684226339269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5151233986421671</v>
+        <v>0.5594412487157547</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2706846296454686</v>
+        <v>0.2349023288531571</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.420790243505718</v>
+        <v>2.501651386258708</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.75063831087747</v>
+        <v>7.66417753240598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.854626750641017</v>
+        <v>6.712491617030773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.485912745475397</v>
+        <v>7.45116253611251</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.295995912992525</v>
+        <v>1.295289556177868</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.240436104048225</v>
+        <v>2.246373200667971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.695603244711048</v>
+        <v>2.696704924698676</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.029372688123399</v>
+        <v>0.9763685585048598</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.104365546076854</v>
+        <v>0.1639000355242624</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3396910436887215</v>
+        <v>-0.3442646653304365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.169453650951265</v>
+        <v>1.166333933585781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.779044636508674</v>
+        <v>1.708408792480095</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0205670514253375</v>
+        <v>0.01524266351567079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06851004940286054</v>
+        <v>-0.08926207025243001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3046790161136532</v>
+        <v>0.328319581468128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2884628578138484</v>
+        <v>0.2698736416233429</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.239769756420197</v>
+        <v>3.352985724887444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.049050628547344</v>
+        <v>4.076265343298595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.437355749330256</v>
+        <v>5.82142447172452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.372459669823656</v>
+        <v>5.317395800319804</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.865102874553643</v>
+        <v>1.828097810546591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.114460856336748</v>
+        <v>1.153024694890903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.692368453959391</v>
+        <v>2.85243565558983</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.317492448873546</v>
+        <v>1.294624482140969</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.9799232852496342</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2121539800464509</v>
+        <v>0.2121539800464511</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.640970233428908</v>
+        <v>-1.720532464556093</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.152048821950425</v>
+        <v>1.198713227959848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3441079132963024</v>
+        <v>0.5518329080051642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7640557362229887</v>
+        <v>-1.059177710274297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4420174236189504</v>
+        <v>-0.4744989239550149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1110250067920537</v>
+        <v>0.1721353967807856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01947310763189298</v>
+        <v>0.04090798093699284</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1172422455632096</v>
+        <v>-0.1575412341899975</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.772898811181471</v>
+        <v>3.718681144054333</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.90270366240861</v>
+        <v>7.798903953906879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.526891523420103</v>
+        <v>6.715982426371749</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.171003578126551</v>
+        <v>3.101394924744241</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.113560110601244</v>
+        <v>2.063038450842662</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.882981211829502</v>
+        <v>2.648313380986918</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.754824753453316</v>
+        <v>2.741321531410104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7021929713216605</v>
+        <v>0.692654533412965</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.026585715429078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.443818064905289</v>
+        <v>4.443818064905286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4796309682401428</v>
@@ -1049,7 +1049,7 @@
         <v>1.229003200035009</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5578738527637963</v>
+        <v>0.5578738527637959</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6609447189356408</v>
+        <v>0.6446639026910091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.438177362503424</v>
+        <v>3.419241738441019</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.644965520824014</v>
+        <v>3.946880727378971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.195434763564124</v>
+        <v>3.21769155179794</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1807572980036987</v>
+        <v>0.1519676335186439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5931496115744388</v>
+        <v>0.5868607852339351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7842397324372287</v>
+        <v>0.8553708920309439</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3738215341586795</v>
+        <v>0.3684769023394446</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.615886178247094</v>
+        <v>2.640088144789317</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.96561931596931</v>
+        <v>6.116851392036591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.279476015832139</v>
+        <v>6.333594500936397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.751969034435459</v>
+        <v>5.731288399532193</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8860410449207171</v>
+        <v>0.9006238489453322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.296353308855488</v>
+        <v>1.32128787755394</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.745817107180651</v>
+        <v>1.776250556246828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7920964503601112</v>
+        <v>0.7904286210736156</v>
       </c>
     </row>
     <row r="19">
